--- a/pm_notes/向日葵需求池-cxs收集.xlsx
+++ b/pm_notes/向日葵需求池-cxs收集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my_github\word_notes\Work_Learn_Notes\pm_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8512FC2-AECD-47C2-B33E-ACC0AACDBC36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D844686D-2B49-4590-AA5C-5D875C7084C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25725" windowHeight="9555" xr2:uid="{D54FF7F4-A71C-42B3-AE14-3CCE4BBC09F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25725" windowHeight="9555" activeTab="1" xr2:uid="{D54FF7F4-A71C-42B3-AE14-3CCE4BBC09F5}"/>
   </bookViews>
   <sheets>
     <sheet name="需求池" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="73">
   <si>
     <t>备注</t>
   </si>
@@ -351,6 +351,14 @@
   </si>
   <si>
     <t>把每个主机当做是一个连接点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机与电脑信息（文件）互发互收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过向日葵软件，能够打通通一个WiFi局域网下电脑信息互通</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -508,6 +516,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -517,7 +536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,6 +580,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,7 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9CE1C3-EAF6-4EA0-808A-5FA90625FE93}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1259,17 +1281,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AB6994-6CD5-4969-A736-44FB220C7D74}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="31.125" customWidth="1"/>
     <col min="5" max="5" width="72.75" customWidth="1"/>
     <col min="6" max="6" width="22.125" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
@@ -1519,6 +1541,14 @@
       </c>
       <c r="O7" s="7" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/pm_notes/向日葵需求池-cxs收集.xlsx
+++ b/pm_notes/向日葵需求池-cxs收集.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my_github\word_notes\Work_Learn_Notes\pm_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D844686D-2B49-4590-AA5C-5D875C7084C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC8585B-FFBF-410F-BBAE-4AEEF2E67C81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25725" windowHeight="9555" activeTab="1" xr2:uid="{D54FF7F4-A71C-42B3-AE14-3CCE4BBC09F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25725" windowHeight="9555" activeTab="4" xr2:uid="{D54FF7F4-A71C-42B3-AE14-3CCE4BBC09F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="需求池" sheetId="1" r:id="rId1"/>
+    <sheet name="策略-需求池" sheetId="1" r:id="rId1"/>
     <sheet name="向日葵手机被控端需求池" sheetId="2" r:id="rId2"/>
-    <sheet name="运营策略" sheetId="3" r:id="rId3"/>
+    <sheet name="官网" sheetId="4" r:id="rId3"/>
+    <sheet name="管理中心" sheetId="5" r:id="rId4"/>
+    <sheet name="硬件" sheetId="6" r:id="rId5"/>
+    <sheet name="运营策略" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求池!$A$2:$P$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'策略-需求池'!$A$2:$P$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -81,8 +84,60 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>aipai</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{06191374-6D0B-479B-A7A2-F17764A178B7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>项目模块如下：
+我
+首页
+社区
+...</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>aipai</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{88D06D51-A008-4EDF-97D1-871B75875BBA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>项目模块如下：
+我
+首页
+社区
+...</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
   <si>
     <t>备注</t>
   </si>
@@ -278,10 +333,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>产品线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -359,6 +410,30 @@
   </si>
   <si>
     <t>通过向日葵软件，能够打通通一个WiFi局域网下电脑信息互通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web调查问卷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原调查问卷问题设计不合理：问题选项太多，无吸引力的让别人作答</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找新材料、外观磨砂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>插座外观起留下手指印，粘手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -576,13 +651,16 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -903,7 +981,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -922,31 +1000,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -958,7 +1036,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
@@ -1184,12 +1262,12 @@
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1206,13 +1284,13 @@
     <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1228,15 +1306,15 @@
     <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1283,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AB6994-6CD5-4969-A736-44FB220C7D74}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1544,11 +1622,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1560,6 +1638,181 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F3E1BA-BC2A-4832-BC58-2E3739EF8FBE}">
+  <dimension ref="A2:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
+    <col min="6" max="6" width="52.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="16">
+        <v>43468</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218ED82D-EB86-49C5-8805-204FEEB56819}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303D0C6A-3977-4945-AC77-A0F5CF22FAAF}">
+  <dimension ref="A2:O3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="16">
+        <v>43468</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2823082-E494-4804-BD70-4F76400DC67F}">
   <dimension ref="A2:D4"/>
   <sheetViews>
@@ -1576,38 +1829,38 @@
   <sheetData>
     <row r="2" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/pm_notes/向日葵需求池-cxs收集.xlsx
+++ b/pm_notes/向日葵需求池-cxs收集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my_github\word_notes\Work_Learn_Notes\pm_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC8585B-FFBF-410F-BBAE-4AEEF2E67C81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F43790F-2F09-41C3-87B3-55DD09A0371E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25725" windowHeight="9555" activeTab="4" xr2:uid="{D54FF7F4-A71C-42B3-AE14-3CCE4BBC09F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25725" windowHeight="9555" activeTab="5" xr2:uid="{D54FF7F4-A71C-42B3-AE14-3CCE4BBC09F5}"/>
   </bookViews>
   <sheets>
     <sheet name="策略-需求池" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="81">
   <si>
     <t>备注</t>
   </si>
@@ -434,6 +434,19 @@
   </si>
   <si>
     <t>插座外观起留下手指印，粘手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8妇女节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓授权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓授权38元（说出你生命中最重要的女人，转发并@向日葵微博）
+发朋友圈，挑一张图片（母亲、老婆、恋人、女儿）领取38元购买安卓授权福利</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -654,14 +667,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1000,24 +1016,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1708,7 +1724,7 @@
       <c r="F3" t="s">
         <v>75</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="14">
         <v>43468</v>
       </c>
     </row>
@@ -1736,7 +1752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303D0C6A-3977-4945-AC77-A0F5CF22FAAF}">
   <dimension ref="A2:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -1801,7 +1817,7 @@
       <c r="E3" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="14">
         <v>43468</v>
       </c>
     </row>
@@ -1814,17 +1830,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2823082-E494-4804-BD70-4F76400DC67F}">
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1863,6 +1879,17 @@
         <v>59</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pm_notes/向日葵需求池-cxs收集.xlsx
+++ b/pm_notes/向日葵需求池-cxs收集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my_github\word_notes\Work_Learn_Notes\pm_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F43790F-2F09-41C3-87B3-55DD09A0371E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188221EB-7719-40DB-AD6D-808F9E148F97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25725" windowHeight="9555" activeTab="5" xr2:uid="{D54FF7F4-A71C-42B3-AE14-3CCE4BBC09F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25725" windowHeight="9555" activeTab="1" xr2:uid="{D54FF7F4-A71C-42B3-AE14-3CCE4BBC09F5}"/>
   </bookViews>
   <sheets>
     <sheet name="策略-需求池" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="84">
   <si>
     <t>备注</t>
   </si>
@@ -409,10 +409,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通过向日葵软件，能够打通通一个WiFi局域网下电脑信息互通</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>产品模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -447,6 +443,22 @@
   <si>
     <t>安卓授权38元（说出你生命中最重要的女人，转发并@向日葵微博）
 发朋友圈，挑一张图片（母亲、老婆、恋人、女儿）领取38元购买安卓授权福利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论是否有安卓授权，先允许用户进入APP，把安卓授权放到登录后的流程？待考证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可复制“控制端下载链接”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过向日葵软件，能够打通通一个WiFi局域网下电脑信息互通；文件传输功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,14 +682,20 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1016,31 +1034,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -1375,18 +1393,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AB6994-6CD5-4969-A736-44FB220C7D74}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="31.125" customWidth="1"/>
-    <col min="5" max="5" width="72.75" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="78.625" customWidth="1"/>
     <col min="6" max="6" width="22.125" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="13.625" customWidth="1"/>
@@ -1476,7 +1494,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
@@ -1641,8 +1659,16 @@
       <c r="D8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>71</v>
+      <c r="E8" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1716,13 +1742,13 @@
     </row>
     <row r="3" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
         <v>73</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
       </c>
       <c r="O3" s="14">
         <v>43468</v>
@@ -1812,10 +1838,10 @@
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O3" s="14">
         <v>43468</v>
@@ -1832,7 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2823082-E494-4804-BD70-4F76400DC67F}">
   <dimension ref="A2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1881,13 +1907,13 @@
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
         <v>78</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/pm_notes/向日葵需求池-cxs收集.xlsx
+++ b/pm_notes/向日葵需求池-cxs收集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my_github\word_notes\Work_Learn_Notes\pm_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188221EB-7719-40DB-AD6D-808F9E148F97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C151DB-EB51-4C99-B85D-0BC8D6128D34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25725" windowHeight="9555" activeTab="1" xr2:uid="{D54FF7F4-A71C-42B3-AE14-3CCE4BBC09F5}"/>
   </bookViews>
@@ -44,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>项目模块如下：
@@ -70,6 +71,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>项目模块如下：
@@ -96,6 +98,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>项目模块如下：
@@ -122,6 +125,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>项目模块如下：
@@ -137,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="90">
   <si>
     <t>备注</t>
   </si>
@@ -459,6 +463,30 @@
   </si>
   <si>
     <t>通过向日葵软件，能够打通通一个WiFi局域网下电脑信息互通；文件传输功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增图像识别链接（算法）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP调用摄像头，识别纸质文件上面的超链接（图像转文本）；可发到电脑上的向日葵软件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可增加用户使用向日葵工具属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待讨论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信/QQ那种功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -478,12 +506,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -491,6 +521,7 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -498,12 +529,14 @@
       <sz val="10"/>
       <color theme="4"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -578,7 +611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -627,6 +660,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -636,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,16 +727,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1034,24 +1082,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1393,7 +1441,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AB6994-6CD5-4969-A736-44FB220C7D74}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -1404,7 +1452,7 @@
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="33.375" customWidth="1"/>
-    <col min="5" max="5" width="78.625" customWidth="1"/>
+    <col min="5" max="5" width="80.5" customWidth="1"/>
     <col min="6" max="6" width="22.125" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="13.625" customWidth="1"/>
@@ -1659,16 +1707,36 @@
       <c r="D8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="13" t="s">
         <v>83</v>
       </c>
+      <c r="F8" s="16" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/pm_notes/向日葵需求池-cxs收集.xlsx
+++ b/pm_notes/向日葵需求池-cxs收集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my_github\word_notes\Work_Learn_Notes\pm_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C151DB-EB51-4C99-B85D-0BC8D6128D34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6975A43B-2FB7-4718-AA99-F5D8300CA348}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25725" windowHeight="9555" activeTab="1" xr2:uid="{D54FF7F4-A71C-42B3-AE14-3CCE4BBC09F5}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25725" windowHeight="9555" activeTab="2" xr2:uid="{D54FF7F4-A71C-42B3-AE14-3CCE4BBC09F5}"/>
   </bookViews>
   <sheets>
     <sheet name="策略-需求池" sheetId="1" r:id="rId1"/>
@@ -733,16 +733,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1082,24 +1082,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1443,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AB6994-6CD5-4969-A736-44FB220C7D74}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1726,7 +1726,7 @@
       <c r="D10" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>85</v>
       </c>
       <c r="F10" s="16" t="s">
@@ -1735,7 +1735,7 @@
       <c r="H10" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="19" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F3E1BA-BC2A-4832-BC58-2E3739EF8FBE}">
   <dimension ref="A2:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
